--- a/out_booth_249/suspect_summary.xlsx
+++ b/out_booth_249/suspect_summary.xlsx
@@ -712,12 +712,12 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Serial number 3 is the only voter listed under house number 1/1 on street '1-Ram Nagar Ward No-10' in booth 249.</t>
+          <t>Serial number 3 does not have any valid parent or spouse relationship with other voters in house number 1/1 on street '1-Ram Nagar Ward No-10'.</t>
         </is>
       </c>
     </row>
@@ -2506,12 +2506,12 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Serial number 28 is the only voter listed under house number 10-129 on street '1-Ram Nagar Ward No-10' in booth 249.</t>
+          <t>Serial number 28 does not have any valid parent or spouse relationship with other voters in house number 10-129 on street '1-Ram Nagar Ward No-10'.</t>
         </is>
       </c>
     </row>
@@ -3086,16 +3086,16 @@
         </is>
       </c>
       <c r="N37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Serial number 36 is the only voter listed under house number 14/ on street '1-Ram Nagar Ward No-10' in booth 249. | Serial number 36 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 36 is the only voter listed under house number 14/ on street '1-Ram Nagar Ward No-10' in booth 249.</t>
         </is>
       </c>
     </row>
@@ -3160,16 +3160,16 @@
         </is>
       </c>
       <c r="N38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Serial number 37 is the only voter listed under house number 14/85/ on street '1-Ram Nagar Ward No-10' in booth 249. | Serial number 37 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 37 is the only voter listed under house number 14/85/ on street '1-Ram Nagar Ward No-10' in booth 249.</t>
         </is>
       </c>
     </row>
@@ -3958,10 +3958,18 @@
         </is>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Serial number 48 does not have any valid parent or spouse relationship with other voters in house number 178 on street '1-Ram Nagar Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4024,10 +4032,18 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Serial number 49 does not have any valid parent or spouse relationship with other voters in house number 178 on street '1-Ram Nagar Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6076,12 +6092,12 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Serial number 77 is the only voter listed under house number 48-A3 on street '1-Ram Nagar Ward No-10' in booth 249.</t>
+          <t>Serial number 77 does not have any valid parent or spouse relationship with other voters in house number 48-A3 on street '1-Ram Nagar Ward No-10'.</t>
         </is>
       </c>
     </row>
@@ -6146,18 +6162,10 @@
         </is>
       </c>
       <c r="N79" t="n">
-        <v>1</v>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P79" t="inlineStr">
-        <is>
-          <t>Serial number 78 is the only voter listed under house number 48/A3 on street '1-Ram Nagar Ward No-10' in booth 249.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -8392,10 +8400,18 @@
         </is>
       </c>
       <c r="N110" t="n">
-        <v>0</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>Serial number 109 does not have any valid parent or spouse relationship with other voters in house number 85-B3 on street '1-Ram Nagar Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -8458,10 +8474,18 @@
         </is>
       </c>
       <c r="N111" t="n">
-        <v>0</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>Serial number 110 does not have any valid parent or spouse relationship with other voters in house number 85-B3 on street '1-Ram Nagar Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -10926,10 +10950,18 @@
         </is>
       </c>
       <c r="N145" t="n">
-        <v>0</v>
-      </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>Serial number 144 does not have any valid parent or spouse relationship with other voters in house number 156 on street '1-Ram Nagar Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -11650,10 +11682,18 @@
         </is>
       </c>
       <c r="N155" t="n">
-        <v>0</v>
-      </c>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>Serial number 154 does not have any valid parent or spouse relationship with other voters in house number 1 on street '2-Samalapuram Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -11716,10 +11756,18 @@
         </is>
       </c>
       <c r="N156" t="n">
-        <v>0</v>
-      </c>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>Serial number 155 does not have any valid parent or spouse relationship with other voters in house number 1 on street '2-Samalapuram Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -11782,10 +11830,18 @@
         </is>
       </c>
       <c r="N157" t="n">
-        <v>0</v>
-      </c>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>Serial number 156 does not have any valid parent or spouse relationship with other voters in house number 1 on street '2-Samalapuram Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -11848,10 +11904,18 @@
         </is>
       </c>
       <c r="N158" t="n">
-        <v>0</v>
-      </c>
-      <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>Serial number 157 does not have any valid parent or spouse relationship with other voters in house number 1 on street '2-Samalapuram Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -11914,16 +11978,16 @@
         </is>
       </c>
       <c r="N159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>EPIC_ID_MISSING</t>
+          <t>ADOPTED_NO_RELATIVE, EPIC_ID_MISSING</t>
         </is>
       </c>
       <c r="P159" t="inlineStr">
         <is>
-          <t>Serial number 158 does not have a valid EPIC ID recorded, which is mandatory for voter identification.</t>
+          <t>Serial number 158 does not have a valid EPIC ID recorded, which is mandatory for voter identification. | Serial number 158 does not have any valid parent or spouse relationship with other voters in house number 1 on street '2-Samalapuram Ward No-10'.</t>
         </is>
       </c>
     </row>
@@ -14022,10 +14086,18 @@
         </is>
       </c>
       <c r="N189" t="n">
-        <v>0</v>
-      </c>
-      <c r="O189" t="inlineStr"/>
-      <c r="P189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>Serial number 188 does not have any valid parent or spouse relationship with other voters in house number 6-2 on street '2-Samalapuram Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -14722,10 +14794,18 @@
         </is>
       </c>
       <c r="N199" t="n">
-        <v>0</v>
-      </c>
-      <c r="O199" t="inlineStr"/>
-      <c r="P199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>Serial number 198 does not have any valid parent or spouse relationship with other voters in house number 84 on street '2-Samalapuram Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -15842,10 +15922,18 @@
         </is>
       </c>
       <c r="N215" t="n">
-        <v>0</v>
-      </c>
-      <c r="O215" t="inlineStr"/>
-      <c r="P215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P215" t="inlineStr">
+        <is>
+          <t>Serial number 214 does not have any valid parent or spouse relationship with other voters in house number 14 on street '2-Samalapuram Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -15908,10 +15996,18 @@
         </is>
       </c>
       <c r="N216" t="n">
-        <v>0</v>
-      </c>
-      <c r="O216" t="inlineStr"/>
-      <c r="P216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P216" t="inlineStr">
+        <is>
+          <t>Serial number 215 does not have any valid parent or spouse relationship with other voters in house number 14 on street '2-Samalapuram Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -16188,10 +16284,18 @@
         </is>
       </c>
       <c r="N220" t="n">
-        <v>0</v>
-      </c>
-      <c r="O220" t="inlineStr"/>
-      <c r="P220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>Serial number 219 does not have any valid parent or spouse relationship with other voters in house number 15/16 on street '2-Samalapuram Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -16254,10 +16358,18 @@
         </is>
       </c>
       <c r="N221" t="n">
-        <v>0</v>
-      </c>
-      <c r="O221" t="inlineStr"/>
-      <c r="P221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>Serial number 220 does not have any valid parent or spouse relationship with other voters in house number 15/16 on street '2-Samalapuram Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -19842,10 +19954,18 @@
         </is>
       </c>
       <c r="N271" t="n">
-        <v>0</v>
-      </c>
-      <c r="O271" t="inlineStr"/>
-      <c r="P271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O271" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P271" t="inlineStr">
+        <is>
+          <t>Serial number 270 does not have any valid parent or spouse relationship with other voters in house number 49/5, on street '2-Samalapuram Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -19908,10 +20028,18 @@
         </is>
       </c>
       <c r="N272" t="n">
-        <v>0</v>
-      </c>
-      <c r="O272" t="inlineStr"/>
-      <c r="P272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O272" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P272" t="inlineStr">
+        <is>
+          <t>Serial number 271 does not have any valid parent or spouse relationship with other voters in house number 49/5, on street '2-Samalapuram Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -22024,10 +22152,18 @@
         </is>
       </c>
       <c r="N302" t="n">
-        <v>0</v>
-      </c>
-      <c r="O302" t="inlineStr"/>
-      <c r="P302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O302" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P302" t="inlineStr">
+        <is>
+          <t>Serial number 301 does not have any valid parent or spouse relationship with other voters in house number 84 on street '2-Samalapuram Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -23332,10 +23468,18 @@
         </is>
       </c>
       <c r="N320" t="n">
-        <v>0</v>
-      </c>
-      <c r="O320" t="inlineStr"/>
-      <c r="P320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O320" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P320" t="inlineStr">
+        <is>
+          <t>Serial number 319 does not have any valid parent or spouse relationship with other voters in house number 119-B on street '2-Samalapuram Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -23398,10 +23542,18 @@
         </is>
       </c>
       <c r="N321" t="n">
-        <v>0</v>
-      </c>
-      <c r="O321" t="inlineStr"/>
-      <c r="P321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O321" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P321" t="inlineStr">
+        <is>
+          <t>Serial number 320 does not have any valid parent or spouse relationship with other voters in house number 119-B on street '2-Samalapuram Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -25660,16 +25812,16 @@
         </is>
       </c>
       <c r="N352" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
         </is>
       </c>
       <c r="P352" t="inlineStr">
         <is>
-          <t>Serial number 351 is the only voter listed under house number 1-114 on street '3-Sendevipalayam Ward No-10' in booth 249. | Serial number 351 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 351 is the only voter listed under house number 1-114 on street '3-Sendevipalayam Ward No-10' in booth 249.</t>
         </is>
       </c>
     </row>
@@ -27830,12 +27982,12 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID</t>
         </is>
       </c>
       <c r="P383" t="inlineStr">
         <is>
-          <t>Serial number 382 is the only voter listed under house number 11-123 on street '3-Sendevipalayam Ward No-10' in booth 249. | Serial number 382 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 382 does not have any valid parent or spouse relationship with other voters in house number 11-123 on street '3-Sendevipalayam Ward No-10'. | Serial number 382 was flagged due to rule: INVALID_EPIC_ID.</t>
         </is>
       </c>
     </row>
@@ -27900,18 +28052,10 @@
         </is>
       </c>
       <c r="N384" t="n">
-        <v>1</v>
-      </c>
-      <c r="O384" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P384" t="inlineStr">
-        <is>
-          <t>Serial number 383 is the only voter listed under house number 11/123 on street '3-Sendevipalayam Ward No-10' in booth 249.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O384" t="inlineStr"/>
+      <c r="P384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -28238,10 +28382,18 @@
         </is>
       </c>
       <c r="N389" t="n">
-        <v>0</v>
-      </c>
-      <c r="O389" t="inlineStr"/>
-      <c r="P389" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O389" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P389" t="inlineStr">
+        <is>
+          <t>Serial number 388 does not have any valid parent or spouse relationship with other voters in house number 12 on street '3-Sendevipalayam Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -29070,10 +29222,18 @@
         </is>
       </c>
       <c r="N401" t="n">
-        <v>0</v>
-      </c>
-      <c r="O401" t="inlineStr"/>
-      <c r="P401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O401" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P401" t="inlineStr">
+        <is>
+          <t>Serial number 400 does not have any valid parent or spouse relationship with other voters in house number 15-1 on street '3-Sendevipalayam Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -29136,10 +29296,18 @@
         </is>
       </c>
       <c r="N402" t="n">
-        <v>0</v>
-      </c>
-      <c r="O402" t="inlineStr"/>
-      <c r="P402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O402" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P402" t="inlineStr">
+        <is>
+          <t>Serial number 401 does not have any valid parent or spouse relationship with other voters in house number 15-1 on street '3-Sendevipalayam Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -29276,16 +29444,16 @@
         </is>
       </c>
       <c r="N404" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
         </is>
       </c>
       <c r="P404" t="inlineStr">
         <is>
-          <t>Serial number 403 is the only voter listed under house number 15-106 on street '3-Sendevipalayam Ward No-10' in booth 249. | Serial number 403 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 403 is the only voter listed under house number 15-106 on street '3-Sendevipalayam Ward No-10' in booth 249.</t>
         </is>
       </c>
     </row>
@@ -29424,10 +29592,18 @@
         </is>
       </c>
       <c r="N406" t="n">
-        <v>0</v>
-      </c>
-      <c r="O406" t="inlineStr"/>
-      <c r="P406" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O406" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P406" t="inlineStr">
+        <is>
+          <t>Serial number 405 does not have any valid parent or spouse relationship with other voters in house number 154 on street '3-Sendevipalayam Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -31548,10 +31724,18 @@
         </is>
       </c>
       <c r="N436" t="n">
-        <v>0</v>
-      </c>
-      <c r="O436" t="inlineStr"/>
-      <c r="P436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O436" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P436" t="inlineStr">
+        <is>
+          <t>Serial number 435 does not have any valid parent or spouse relationship with other voters in house number 26 on street '3-Sendevipalayam Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -31614,10 +31798,18 @@
         </is>
       </c>
       <c r="N437" t="n">
-        <v>0</v>
-      </c>
-      <c r="O437" t="inlineStr"/>
-      <c r="P437" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O437" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P437" t="inlineStr">
+        <is>
+          <t>Serial number 436 does not have any valid parent or spouse relationship with other voters in house number 26 on street '3-Sendevipalayam Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -33296,16 +33488,16 @@
         </is>
       </c>
       <c r="N462" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O462" t="inlineStr">
         <is>
-          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P462" t="inlineStr">
         <is>
-          <t>Serial number 461 does not have any valid parent or spouse relationship with other voters in house number 30D-1 on street '3-Sendevipalayam Ward No-10'. | Serial number 461 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 461 does not have any valid parent or spouse relationship with other voters in house number 30D-1 on street '3-Sendevipalayam Ward No-10'.</t>
         </is>
       </c>
     </row>
@@ -33576,10 +33768,18 @@
         </is>
       </c>
       <c r="N466" t="n">
-        <v>0</v>
-      </c>
-      <c r="O466" t="inlineStr"/>
-      <c r="P466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O466" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P466" t="inlineStr">
+        <is>
+          <t>Serial number 465 does not have any valid parent or spouse relationship with other voters in house number 30f on street '3-Sendevipalayam Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
@@ -33642,10 +33842,18 @@
         </is>
       </c>
       <c r="N467" t="n">
-        <v>0</v>
-      </c>
-      <c r="O467" t="inlineStr"/>
-      <c r="P467" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O467" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P467" t="inlineStr">
+        <is>
+          <t>Serial number 466 does not have any valid parent or spouse relationship with other voters in house number 30f on street '3-Sendevipalayam Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
@@ -33708,16 +33916,16 @@
         </is>
       </c>
       <c r="N468" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O468" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
         </is>
       </c>
       <c r="P468" t="inlineStr">
         <is>
-          <t>Serial number 467 is the only voter listed under house number 30-G-1 on street '3-Sendevipalayam Ward No-10' in booth 249. | Serial number 467 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 467 is the only voter listed under house number 30-G-1 on street '3-Sendevipalayam Ward No-10' in booth 249.</t>
         </is>
       </c>
     </row>
@@ -33914,10 +34122,18 @@
         </is>
       </c>
       <c r="N471" t="n">
-        <v>0</v>
-      </c>
-      <c r="O471" t="inlineStr"/>
-      <c r="P471" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O471" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P471" t="inlineStr">
+        <is>
+          <t>Serial number 470 does not have any valid parent or spouse relationship with other voters in house number 32 on street '3-Sendevipalayam Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
@@ -34310,10 +34526,18 @@
         </is>
       </c>
       <c r="N477" t="n">
-        <v>0</v>
-      </c>
-      <c r="O477" t="inlineStr"/>
-      <c r="P477" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O477" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P477" t="inlineStr">
+        <is>
+          <t>Serial number 476 does not have any valid parent or spouse relationship with other voters in house number 36 on street '3-Sendevipalayam Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
@@ -35546,10 +35770,18 @@
         </is>
       </c>
       <c r="N495" t="n">
-        <v>0</v>
-      </c>
-      <c r="O495" t="inlineStr"/>
-      <c r="P495" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O495" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P495" t="inlineStr">
+        <is>
+          <t>Serial number 494 does not have any valid parent or spouse relationship with other voters in house number 42 on street '3-Sendevipalayam Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
@@ -35752,10 +35984,18 @@
         </is>
       </c>
       <c r="N498" t="n">
-        <v>0</v>
-      </c>
-      <c r="O498" t="inlineStr"/>
-      <c r="P498" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O498" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P498" t="inlineStr">
+        <is>
+          <t>Serial number 497 does not have any valid parent or spouse relationship with other voters in house number 46 on street '3-Sendevipalayam Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
@@ -36016,16 +36256,16 @@
         </is>
       </c>
       <c r="N502" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O502" t="inlineStr">
         <is>
-          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P502" t="inlineStr">
         <is>
-          <t>Serial number 501 does not have any valid parent or spouse relationship with other voters in house number 48 on street '3-Sendevipalayam Ward No-10'. | Serial number 501 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 501 does not have any valid parent or spouse relationship with other voters in house number 48 on street '3-Sendevipalayam Ward No-10'.</t>
         </is>
       </c>
     </row>
@@ -37292,10 +37532,18 @@
         </is>
       </c>
       <c r="N520" t="n">
-        <v>0</v>
-      </c>
-      <c r="O520" t="inlineStr"/>
-      <c r="P520" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O520" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P520" t="inlineStr">
+        <is>
+          <t>Serial number 519 does not have any valid parent or spouse relationship with other voters in house number 58/2 on street '3-Sendevipalayam Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
@@ -37358,10 +37606,18 @@
         </is>
       </c>
       <c r="N521" t="n">
-        <v>0</v>
-      </c>
-      <c r="O521" t="inlineStr"/>
-      <c r="P521" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O521" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P521" t="inlineStr">
+        <is>
+          <t>Serial number 520 does not have any valid parent or spouse relationship with other voters in house number 58/2 on street '3-Sendevipalayam Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
@@ -39376,16 +39632,16 @@
         </is>
       </c>
       <c r="N550" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O550" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
         </is>
       </c>
       <c r="P550" t="inlineStr">
         <is>
-          <t>Serial number 549 is the only voter listed under house number 73-52 on street '3-Sendevipalayam Ward No-10' in booth 249. | Serial number 549 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 549 is the only voter listed under house number 73-52 on street '3-Sendevipalayam Ward No-10' in booth 249.</t>
         </is>
       </c>
     </row>
@@ -39878,10 +40134,18 @@
         </is>
       </c>
       <c r="N557" t="n">
-        <v>0</v>
-      </c>
-      <c r="O557" t="inlineStr"/>
-      <c r="P557" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O557" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P557" t="inlineStr">
+        <is>
+          <t>Serial number 556 does not have any valid parent or spouse relationship with other voters in house number 77 on street '3-Sendevipalayam Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
@@ -39944,10 +40208,18 @@
         </is>
       </c>
       <c r="N558" t="n">
-        <v>0</v>
-      </c>
-      <c r="O558" t="inlineStr"/>
-      <c r="P558" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O558" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P558" t="inlineStr">
+        <is>
+          <t>Serial number 557 does not have any valid parent or spouse relationship with other voters in house number 77 on street '3-Sendevipalayam Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
@@ -40010,10 +40282,18 @@
         </is>
       </c>
       <c r="N559" t="n">
-        <v>0</v>
-      </c>
-      <c r="O559" t="inlineStr"/>
-      <c r="P559" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O559" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P559" t="inlineStr">
+        <is>
+          <t>Serial number 558 does not have any valid parent or spouse relationship with other voters in house number 77A on street '3-Sendevipalayam Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
@@ -40912,12 +41192,12 @@
       </c>
       <c r="O572" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P572" t="inlineStr">
         <is>
-          <t>Serial number 571 is the only voter listed under house number 82-60 on street '3-Sendevipalayam Ward No-10' in booth 249.</t>
+          <t>Serial number 571 does not have any valid parent or spouse relationship with other voters in house number 82-60 on street '3-Sendevipalayam Ward No-10'.</t>
         </is>
       </c>
     </row>
@@ -40982,18 +41262,10 @@
         </is>
       </c>
       <c r="N573" t="n">
-        <v>1</v>
-      </c>
-      <c r="O573" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P573" t="inlineStr">
-        <is>
-          <t>Serial number 572 is the only voter listed under house number 82/60 on street '3-Sendevipalayam Ward No-10' in booth 249.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O573" t="inlineStr"/>
+      <c r="P573" t="inlineStr"/>
     </row>
     <row r="574">
       <c r="A574" t="n">
@@ -42802,10 +43074,18 @@
         </is>
       </c>
       <c r="N599" t="n">
-        <v>0</v>
-      </c>
-      <c r="O599" t="inlineStr"/>
-      <c r="P599" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O599" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P599" t="inlineStr">
+        <is>
+          <t>Serial number 598 does not have any valid parent or spouse relationship with other voters in house number 93 on street '3-Sendevipalayam Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
@@ -42868,18 +43148,10 @@
         </is>
       </c>
       <c r="N600" t="n">
-        <v>1</v>
-      </c>
-      <c r="O600" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P600" t="inlineStr">
-        <is>
-          <t>Serial number 599 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O600" t="inlineStr"/>
+      <c r="P600" t="inlineStr"/>
     </row>
     <row r="601">
       <c r="A601" t="n">
@@ -43642,10 +43914,18 @@
         </is>
       </c>
       <c r="N611" t="n">
-        <v>0</v>
-      </c>
-      <c r="O611" t="inlineStr"/>
-      <c r="P611" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O611" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P611" t="inlineStr">
+        <is>
+          <t>Serial number 610 does not have any valid parent or spouse relationship with other voters in house number 99 on street '3-Sendevipalayam Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="612">
       <c r="A612" t="n">
@@ -43708,10 +43988,18 @@
         </is>
       </c>
       <c r="N612" t="n">
-        <v>0</v>
-      </c>
-      <c r="O612" t="inlineStr"/>
-      <c r="P612" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O612" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P612" t="inlineStr">
+        <is>
+          <t>Serial number 611 does not have any valid parent or spouse relationship with other voters in house number 99 on street '3-Sendevipalayam Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="613">
       <c r="A613" t="n">
@@ -44104,18 +44392,10 @@
         </is>
       </c>
       <c r="N618" t="n">
-        <v>1</v>
-      </c>
-      <c r="O618" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P618" t="inlineStr">
-        <is>
-          <t>Serial number 617 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O618" t="inlineStr"/>
+      <c r="P618" t="inlineStr"/>
     </row>
     <row r="619">
       <c r="A619" t="n">
@@ -45966,18 +46246,10 @@
         </is>
       </c>
       <c r="N645" t="n">
-        <v>1</v>
-      </c>
-      <c r="O645" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P645" t="inlineStr">
-        <is>
-          <t>Serial number 644 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O645" t="inlineStr"/>
+      <c r="P645" t="inlineStr"/>
     </row>
     <row r="646">
       <c r="A646" t="n">
@@ -46180,10 +46452,18 @@
         </is>
       </c>
       <c r="N648" t="n">
-        <v>0</v>
-      </c>
-      <c r="O648" t="inlineStr"/>
-      <c r="P648" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O648" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P648" t="inlineStr">
+        <is>
+          <t>Serial number 647 does not have any valid parent or spouse relationship with other voters in house number 117 on street '3-Sendevipalayam Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="649">
       <c r="A649" t="n">
@@ -46246,10 +46526,18 @@
         </is>
       </c>
       <c r="N649" t="n">
-        <v>0</v>
-      </c>
-      <c r="O649" t="inlineStr"/>
-      <c r="P649" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O649" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P649" t="inlineStr">
+        <is>
+          <t>Serial number 648 does not have any valid parent or spouse relationship with other voters in house number 117 on street '3-Sendevipalayam Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="650">
       <c r="A650" t="n">
@@ -47580,10 +47868,18 @@
         </is>
       </c>
       <c r="N668" t="n">
-        <v>0</v>
-      </c>
-      <c r="O668" t="inlineStr"/>
-      <c r="P668" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O668" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P668" t="inlineStr">
+        <is>
+          <t>Serial number 667 does not have any valid parent or spouse relationship with other voters in house number 119 on street '3-Sendevipalayam Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="669">
       <c r="A669" t="n">
@@ -47646,10 +47942,18 @@
         </is>
       </c>
       <c r="N669" t="n">
-        <v>0</v>
-      </c>
-      <c r="O669" t="inlineStr"/>
-      <c r="P669" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O669" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P669" t="inlineStr">
+        <is>
+          <t>Serial number 668 does not have any valid parent or spouse relationship with other voters in house number 119 on street '3-Sendevipalayam Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="670">
       <c r="A670" t="n">
@@ -49054,10 +49358,18 @@
         </is>
       </c>
       <c r="N689" t="n">
-        <v>0</v>
-      </c>
-      <c r="O689" t="inlineStr"/>
-      <c r="P689" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O689" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P689" t="inlineStr">
+        <is>
+          <t>Serial number 688 does not have any valid parent or spouse relationship with other voters in house number 122 on street '3-Sendevipalayam Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="690">
       <c r="A690" t="n">
@@ -49944,10 +50256,18 @@
         </is>
       </c>
       <c r="N702" t="n">
-        <v>0</v>
-      </c>
-      <c r="O702" t="inlineStr"/>
-      <c r="P702" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O702" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P702" t="inlineStr">
+        <is>
+          <t>Serial number 701 does not have any valid parent or spouse relationship with other voters in house number 123 on street '3-Sendevipalayam Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="703">
       <c r="A703" t="n">
@@ -50842,10 +51162,18 @@
         </is>
       </c>
       <c r="N715" t="n">
-        <v>0</v>
-      </c>
-      <c r="O715" t="inlineStr"/>
-      <c r="P715" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O715" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P715" t="inlineStr">
+        <is>
+          <t>Serial number 714 does not have any valid parent or spouse relationship with other voters in house number 124A on street '3-Sendevipalayam Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="716">
       <c r="A716" t="n">
@@ -50908,10 +51236,18 @@
         </is>
       </c>
       <c r="N716" t="n">
-        <v>0</v>
-      </c>
-      <c r="O716" t="inlineStr"/>
-      <c r="P716" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O716" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P716" t="inlineStr">
+        <is>
+          <t>Serial number 715 does not have any valid parent or spouse relationship with other voters in house number 124a on street '3-Sendevipalayam Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="717">
       <c r="A717" t="n">
@@ -51048,16 +51384,16 @@
         </is>
       </c>
       <c r="N718" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O718" t="inlineStr">
         <is>
-          <t>DUPLICATE_DETAILS, SAME_NAME_IN_SAME_HOUSE</t>
+          <t>ADOPTED_NO_RELATIVE, DUPLICATE_DETAILS, SAME_NAME_IN_SAME_HOUSE</t>
         </is>
       </c>
       <c r="P718" t="inlineStr">
         <is>
-          <t>Serial number 717 has identical personal and family details as serial number(s) [718] in part(s) ['249'] inside assembly ['116'], but appears under a different EPIC ID. | Multiple voters in house number 124G on street '3-Sendevipalayam Ward No-10' share the same name as serial number 717.</t>
+          <t>Serial number 717 has identical personal and family details as serial number(s) [718] in part(s) ['249'] inside assembly ['116'], but appears under a different EPIC ID. | Multiple voters in house number 124G on street '3-Sendevipalayam Ward No-10' share the same name as serial number 717. | Serial number 717 does not have any valid parent or spouse relationship with other voters in house number 124G on street '3-Sendevipalayam Ward No-10'.</t>
         </is>
       </c>
     </row>
@@ -51122,16 +51458,16 @@
         </is>
       </c>
       <c r="N719" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O719" t="inlineStr">
         <is>
-          <t>DUPLICATE_DETAILS, SAME_NAME_IN_SAME_HOUSE</t>
+          <t>ADOPTED_NO_RELATIVE, DUPLICATE_DETAILS, SAME_NAME_IN_SAME_HOUSE</t>
         </is>
       </c>
       <c r="P719" t="inlineStr">
         <is>
-          <t>Serial number 718 has identical personal and family details as serial number(s) [717] in part(s) ['249'] inside assembly ['116'], but appears under a different EPIC ID. | Multiple voters in house number 124G on street '3-Sendevipalayam Ward No-10' share the same name as serial number 718.</t>
+          <t>Serial number 718 has identical personal and family details as serial number(s) [717] in part(s) ['249'] inside assembly ['116'], but appears under a different EPIC ID. | Multiple voters in house number 124G on street '3-Sendevipalayam Ward No-10' share the same name as serial number 718. | Serial number 718 does not have any valid parent or spouse relationship with other voters in house number 124G on street '3-Sendevipalayam Ward No-10'.</t>
         </is>
       </c>
     </row>
@@ -51814,10 +52150,18 @@
         </is>
       </c>
       <c r="N729" t="n">
-        <v>0</v>
-      </c>
-      <c r="O729" t="inlineStr"/>
-      <c r="P729" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O729" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P729" t="inlineStr">
+        <is>
+          <t>Serial number 728 does not have any valid parent or spouse relationship with other voters in house number 128 on street '3-Sendevipalayam Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="730">
       <c r="A730" t="n">
@@ -54352,10 +54696,18 @@
         </is>
       </c>
       <c r="N766" t="n">
-        <v>0</v>
-      </c>
-      <c r="O766" t="inlineStr"/>
-      <c r="P766" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O766" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P766" t="inlineStr">
+        <is>
+          <t>Serial number 765 does not have any valid parent or spouse relationship with other voters in house number 141 on street '3-Sendevipalayam Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="767">
       <c r="A767" t="n">
@@ -55284,10 +55636,18 @@
         </is>
       </c>
       <c r="N780" t="n">
-        <v>0</v>
-      </c>
-      <c r="O780" t="inlineStr"/>
-      <c r="P780" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O780" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P780" t="inlineStr">
+        <is>
+          <t>Serial number 779 does not have any valid parent or spouse relationship with other voters in house number 152 on street '3-Sendevipalayam Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="781">
       <c r="A781" t="n">
@@ -55350,10 +55710,18 @@
         </is>
       </c>
       <c r="N781" t="n">
-        <v>0</v>
-      </c>
-      <c r="O781" t="inlineStr"/>
-      <c r="P781" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O781" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P781" t="inlineStr">
+        <is>
+          <t>Serial number 780 does not have any valid parent or spouse relationship with other voters in house number 152 on street '3-Sendevipalayam Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="782">
       <c r="A782" t="n">
@@ -55482,10 +55850,18 @@
         </is>
       </c>
       <c r="N783" t="n">
-        <v>0</v>
-      </c>
-      <c r="O783" t="inlineStr"/>
-      <c r="P783" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O783" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P783" t="inlineStr">
+        <is>
+          <t>Serial number 782 does not have any valid parent or spouse relationship with other voters in house number 154 on street '3-Sendevipalayam Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="784">
       <c r="A784" t="n">
@@ -55548,10 +55924,18 @@
         </is>
       </c>
       <c r="N784" t="n">
-        <v>0</v>
-      </c>
-      <c r="O784" t="inlineStr"/>
-      <c r="P784" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O784" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P784" t="inlineStr">
+        <is>
+          <t>Serial number 783 does not have any valid parent or spouse relationship with other voters in house number 154 on street '3-Sendevipalayam Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="785">
       <c r="A785" t="n">
@@ -56018,10 +56402,18 @@
         </is>
       </c>
       <c r="N791" t="n">
-        <v>0</v>
-      </c>
-      <c r="O791" t="inlineStr"/>
-      <c r="P791" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O791" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P791" t="inlineStr">
+        <is>
+          <t>Serial number 790 does not have any valid parent or spouse relationship with other voters in house number 157 on street '3-Sendevipalayam Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="792">
       <c r="A792" t="n">
@@ -59304,16 +59696,16 @@
         </is>
       </c>
       <c r="N838" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O838" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
         </is>
       </c>
       <c r="P838" t="inlineStr">
         <is>
-          <t>Serial number 837 is the only voter listed under house number 8B/1A on street '4-Bharathi Nagar Ward No-10' in booth 249. | Serial number 837 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 837 is the only voter listed under house number 8B/1A on street '4-Bharathi Nagar Ward No-10' in booth 249.</t>
         </is>
       </c>
     </row>
@@ -59584,10 +59976,18 @@
         </is>
       </c>
       <c r="N842" t="n">
-        <v>0</v>
-      </c>
-      <c r="O842" t="inlineStr"/>
-      <c r="P842" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O842" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P842" t="inlineStr">
+        <is>
+          <t>Serial number 841 does not have any valid parent or spouse relationship with other voters in house number 9 on street '4-Bharathi Nagar Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="843">
       <c r="A843" t="n">
@@ -60260,10 +60660,18 @@
         </is>
       </c>
       <c r="N852" t="n">
-        <v>0</v>
-      </c>
-      <c r="O852" t="inlineStr"/>
-      <c r="P852" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O852" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P852" t="inlineStr">
+        <is>
+          <t>Serial number 851 does not have any valid parent or spouse relationship with other voters in house number 11 on street '4-Bharathi Nagar Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="853">
       <c r="A853" t="n">
@@ -61224,16 +61632,16 @@
         </is>
       </c>
       <c r="N866" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O866" t="inlineStr">
         <is>
-          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P866" t="inlineStr">
         <is>
-          <t>Serial number 865 does not have any valid parent or spouse relationship with other voters in house number 12B on street '4-Bharathi Nagar Ward No-10'. | Serial number 865 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 865 does not have any valid parent or spouse relationship with other voters in house number 12B on street '4-Bharathi Nagar Ward No-10'.</t>
         </is>
       </c>
     </row>
@@ -63834,10 +64242,18 @@
         </is>
       </c>
       <c r="N903" t="n">
-        <v>0</v>
-      </c>
-      <c r="O903" t="inlineStr"/>
-      <c r="P903" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O903" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P903" t="inlineStr">
+        <is>
+          <t>Serial number 902 does not have any valid parent or spouse relationship with other voters in house number 15-39 on street '4-Bharathi Nagar Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="904">
       <c r="A904" t="n">
@@ -65440,16 +65856,16 @@
         </is>
       </c>
       <c r="N926" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O926" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
         </is>
       </c>
       <c r="P926" t="inlineStr">
         <is>
-          <t>Serial number 925 is the only voter listed under house number 18-15 on street '4-Bharathi Nagar Ward No-10' in booth 249. | Serial number 925 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 925 is the only voter listed under house number 18-15 on street '4-Bharathi Nagar Ward No-10' in booth 249.</t>
         </is>
       </c>
     </row>
@@ -65736,10 +66152,18 @@
         </is>
       </c>
       <c r="N930" t="n">
-        <v>0</v>
-      </c>
-      <c r="O930" t="inlineStr"/>
-      <c r="P930" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O930" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P930" t="inlineStr">
+        <is>
+          <t>Serial number 929 does not have any valid parent or spouse relationship with other voters in house number 18C on street '4-Bharathi Nagar Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="931">
       <c r="A931" t="n">
@@ -65802,10 +66226,18 @@
         </is>
       </c>
       <c r="N931" t="n">
-        <v>0</v>
-      </c>
-      <c r="O931" t="inlineStr"/>
-      <c r="P931" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O931" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P931" t="inlineStr">
+        <is>
+          <t>Serial number 930 does not have any valid parent or spouse relationship with other voters in house number 18C on street '4-Bharathi Nagar Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="932">
       <c r="A932" t="n">
@@ -65868,10 +66300,18 @@
         </is>
       </c>
       <c r="N932" t="n">
-        <v>0</v>
-      </c>
-      <c r="O932" t="inlineStr"/>
-      <c r="P932" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O932" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P932" t="inlineStr">
+        <is>
+          <t>Serial number 931 does not have any valid parent or spouse relationship with other voters in house number 18C on street '4-Bharathi Nagar Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="933">
       <c r="A933" t="n">
@@ -67178,10 +67618,18 @@
         </is>
       </c>
       <c r="N951" t="n">
-        <v>0</v>
-      </c>
-      <c r="O951" t="inlineStr"/>
-      <c r="P951" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O951" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P951" t="inlineStr">
+        <is>
+          <t>Serial number 950 does not have any valid parent or spouse relationship with other voters in house number 22 on street '4-Bharathi Nagar Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="952">
       <c r="A952" t="n">
@@ -67738,16 +68186,16 @@
         </is>
       </c>
       <c r="N959" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O959" t="inlineStr">
         <is>
-          <t>SAME_NAME_IN_SAME_HOUSE</t>
+          <t>ADOPTED_NO_RELATIVE, SAME_NAME_IN_SAME_HOUSE</t>
         </is>
       </c>
       <c r="P959" t="inlineStr">
         <is>
-          <t>Multiple voters in house number 25 on street '4-Bharathi Nagar Ward No-10' share the same name as serial number 958.</t>
+          <t>Multiple voters in house number 25 on street '4-Bharathi Nagar Ward No-10' share the same name as serial number 958. | Serial number 958 does not have any valid parent or spouse relationship with other voters in house number 25 on street '4-Bharathi Nagar Ward No-10'.</t>
         </is>
       </c>
     </row>
@@ -68438,10 +68886,18 @@
         </is>
       </c>
       <c r="N969" t="n">
-        <v>0</v>
-      </c>
-      <c r="O969" t="inlineStr"/>
-      <c r="P969" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O969" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P969" t="inlineStr">
+        <is>
+          <t>Serial number 968 does not have any valid parent or spouse relationship with other voters in house number 28 on street '4-Bharathi Nagar Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="970">
       <c r="A970" t="n">
@@ -69608,18 +70064,10 @@
         </is>
       </c>
       <c r="N986" t="n">
-        <v>2</v>
-      </c>
-      <c r="O986" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P986" t="inlineStr">
-        <is>
-          <t>Serial number 985 is the only voter listed under house number 31-22 on street '4-Bharathi Nagar Ward No-10' in booth 249. | Serial number 985 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O986" t="inlineStr"/>
+      <c r="P986" t="inlineStr"/>
     </row>
     <row r="987">
       <c r="A987" t="n">
@@ -69686,12 +70134,12 @@
       </c>
       <c r="O987" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P987" t="inlineStr">
         <is>
-          <t>Serial number 986 is the only voter listed under house number 31/22 on street '4-Bharathi Nagar Ward No-10' in booth 249.</t>
+          <t>Serial number 986 does not have any valid parent or spouse relationship with other voters in house number 31/22 on street '4-Bharathi Nagar Ward No-10'.</t>
         </is>
       </c>
     </row>
@@ -70176,18 +70624,10 @@
         </is>
       </c>
       <c r="N994" t="n">
-        <v>1</v>
-      </c>
-      <c r="O994" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P994" t="inlineStr">
-        <is>
-          <t>Serial number 993 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O994" t="inlineStr"/>
+      <c r="P994" t="inlineStr"/>
     </row>
     <row r="995">
       <c r="A995" t="n">
@@ -70760,18 +71200,10 @@
         </is>
       </c>
       <c r="N1002" t="n">
-        <v>1</v>
-      </c>
-      <c r="O1002" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P1002" t="inlineStr">
-        <is>
-          <t>Serial number 1001 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O1002" t="inlineStr"/>
+      <c r="P1002" t="inlineStr"/>
     </row>
     <row r="1003">
       <c r="A1003" t="n">
@@ -74494,10 +74926,18 @@
         </is>
       </c>
       <c r="N1053" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1053" t="inlineStr"/>
-      <c r="P1053" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1053" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1053" t="inlineStr">
+        <is>
+          <t>Serial number 1052 does not have any valid parent or spouse relationship with other voters in house number 3 on street '5-Thiruvalluvar Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="1054">
       <c r="A1054" t="n">
@@ -74560,16 +75000,16 @@
         </is>
       </c>
       <c r="N1054" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O1054" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID</t>
         </is>
       </c>
       <c r="P1054" t="inlineStr">
         <is>
-          <t>Serial number 1053 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 1053 does not have any valid parent or spouse relationship with other voters in house number 3 on street '5-Thiruvalluvar Street Ward No-10'. | Serial number 1053 was flagged due to rule: INVALID_EPIC_ID.</t>
         </is>
       </c>
     </row>
@@ -74634,10 +75074,18 @@
         </is>
       </c>
       <c r="N1055" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1055" t="inlineStr"/>
-      <c r="P1055" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1055" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1055" t="inlineStr">
+        <is>
+          <t>Serial number 1054 does not have any valid parent or spouse relationship with other voters in house number 3 on street '5-Thiruvalluvar Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="1056">
       <c r="A1056" t="n">
@@ -76390,10 +76838,18 @@
         </is>
       </c>
       <c r="N1081" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1081" t="inlineStr"/>
-      <c r="P1081" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1081" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1081" t="inlineStr">
+        <is>
+          <t>Serial number 1080 does not have any valid parent or spouse relationship with other voters in house number 9 on street '5-Thiruvalluvar Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="1082">
       <c r="A1082" t="n">
@@ -77872,16 +78328,16 @@
         </is>
       </c>
       <c r="N1102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O1102" t="inlineStr">
         <is>
-          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P1102" t="inlineStr">
         <is>
-          <t>Serial number 1101 does not have any valid parent or spouse relationship with other voters in house number 14 on street '5-Thiruvalluvar Street Ward No-10'. | Serial number 1101 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 1101 does not have any valid parent or spouse relationship with other voters in house number 14 on street '5-Thiruvalluvar Street Ward No-10'.</t>
         </is>
       </c>
     </row>
@@ -78720,16 +79176,16 @@
         </is>
       </c>
       <c r="N1114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O1114" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID</t>
         </is>
       </c>
       <c r="P1114" t="inlineStr">
         <is>
-          <t>Serial number 1113 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 1113 does not have any valid parent or spouse relationship with other voters in house number 15 on street '5-Thiruvalluvar Street Ward No-10'. | Serial number 1113 was flagged due to rule: INVALID_EPIC_ID.</t>
         </is>
       </c>
     </row>
@@ -79642,10 +80098,18 @@
         </is>
       </c>
       <c r="N1127" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1127" t="inlineStr"/>
-      <c r="P1127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1127" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1127" t="inlineStr">
+        <is>
+          <t>Serial number 1126 does not have any valid parent or spouse relationship with other voters in house number 15 on street '5-Thiruvalluvar Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="1128">
       <c r="A1128" t="n">
@@ -79988,10 +80452,18 @@
         </is>
       </c>
       <c r="N1132" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1132" t="inlineStr"/>
-      <c r="P1132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1132" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1132" t="inlineStr">
+        <is>
+          <t>Serial number 1131 does not have any valid parent or spouse relationship with other voters in house number 15 on street '5-Thiruvalluvar Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="1133">
       <c r="A1133" t="n">
@@ -80054,10 +80526,18 @@
         </is>
       </c>
       <c r="N1133" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1133" t="inlineStr"/>
-      <c r="P1133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1133" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1133" t="inlineStr">
+        <is>
+          <t>Serial number 1132 does not have any valid parent or spouse relationship with other voters in house number 15B on street '5-Thiruvalluvar Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="1134">
       <c r="A1134" t="n">
@@ -80540,10 +81020,18 @@
         </is>
       </c>
       <c r="N1140" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1140" t="inlineStr"/>
-      <c r="P1140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1140" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1140" t="inlineStr">
+        <is>
+          <t>Serial number 1139 does not have any valid parent or spouse relationship with other voters in house number 15b on street '5-Thiruvalluvar Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="1141">
       <c r="A1141" t="n">
@@ -80804,16 +81292,16 @@
         </is>
       </c>
       <c r="N1144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O1144" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID</t>
         </is>
       </c>
       <c r="P1144" t="inlineStr">
         <is>
-          <t>Serial number 1143 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 1143 does not have any valid parent or spouse relationship with other voters in house number 15D on street '5-Thiruvalluvar Street Ward No-10'. | Serial number 1143 was flagged due to rule: INVALID_EPIC_ID.</t>
         </is>
       </c>
     </row>
@@ -82550,10 +83038,18 @@
         </is>
       </c>
       <c r="N1169" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1169" t="inlineStr"/>
-      <c r="P1169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1169" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1169" t="inlineStr">
+        <is>
+          <t>Serial number 1168 does not have any valid parent or spouse relationship with other voters in house number 18 on street '5-Thiruvalluvar Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="1170">
       <c r="A1170" t="n">
@@ -82616,10 +83112,18 @@
         </is>
       </c>
       <c r="N1170" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1170" t="inlineStr"/>
-      <c r="P1170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1170" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1170" t="inlineStr">
+        <is>
+          <t>Serial number 1169 does not have any valid parent or spouse relationship with other voters in house number 18 on street '5-Thiruvalluvar Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="1171">
       <c r="A1171" t="n">
@@ -83102,10 +83606,18 @@
         </is>
       </c>
       <c r="N1177" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1177" t="inlineStr"/>
-      <c r="P1177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1177" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1177" t="inlineStr">
+        <is>
+          <t>Serial number 1176 does not have any valid parent or spouse relationship with other voters in house number 19 on street '5-Thiruvalluvar Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="1178">
       <c r="A1178" t="n">
@@ -85910,16 +86422,16 @@
         </is>
       </c>
       <c r="N1217" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O1217" t="inlineStr">
         <is>
-          <t>BULK_10_PLUS</t>
+          <t>ADOPTED_NO_RELATIVE, BULK_10_PLUS</t>
         </is>
       </c>
       <c r="P1217" t="inlineStr">
         <is>
-          <t>House number 30 on street '5-Thiruvalluvar Street Ward No-10' contains 17 registered voters including serial number 1216, which exceeds the household size threshold.</t>
+          <t>Serial number 1216 does not have any valid parent or spouse relationship with other voters in house number 30 on street '5-Thiruvalluvar Street Ward No-10'. | House number 30 on street '5-Thiruvalluvar Street Ward No-10' contains 17 registered voters including serial number 1216, which exceeds the household size threshold.</t>
         </is>
       </c>
     </row>
@@ -86428,16 +86940,16 @@
         </is>
       </c>
       <c r="N1224" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O1224" t="inlineStr">
         <is>
-          <t>BULK_10_PLUS</t>
+          <t>ADOPTED_NO_RELATIVE, BULK_10_PLUS</t>
         </is>
       </c>
       <c r="P1224" t="inlineStr">
         <is>
-          <t>House number 30 on street '5-Thiruvalluvar Street Ward No-10' contains 17 registered voters including serial number 1223, which exceeds the household size threshold.</t>
+          <t>Serial number 1223 does not have any valid parent or spouse relationship with other voters in house number 30 on street '5-Thiruvalluvar Street Ward No-10'. | House number 30 on street '5-Thiruvalluvar Street Ward No-10' contains 17 registered voters including serial number 1223, which exceeds the household size threshold.</t>
         </is>
       </c>
     </row>
@@ -86576,16 +87088,16 @@
         </is>
       </c>
       <c r="N1226" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O1226" t="inlineStr">
         <is>
-          <t>BULK_10_PLUS</t>
+          <t>ADOPTED_NO_RELATIVE, BULK_10_PLUS</t>
         </is>
       </c>
       <c r="P1226" t="inlineStr">
         <is>
-          <t>House number 30 on street '5-Thiruvalluvar Street Ward No-10' contains 17 registered voters including serial number 1225, which exceeds the household size threshold.</t>
+          <t>Serial number 1225 does not have any valid parent or spouse relationship with other voters in house number 30 on street '5-Thiruvalluvar Street Ward No-10'. | House number 30 on street '5-Thiruvalluvar Street Ward No-10' contains 17 registered voters including serial number 1225, which exceeds the household size threshold.</t>
         </is>
       </c>
     </row>
@@ -86650,16 +87162,16 @@
         </is>
       </c>
       <c r="N1227" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O1227" t="inlineStr">
         <is>
-          <t>BULK_10_PLUS</t>
+          <t>ADOPTED_NO_RELATIVE, BULK_10_PLUS</t>
         </is>
       </c>
       <c r="P1227" t="inlineStr">
         <is>
-          <t>House number 30 on street '5-Thiruvalluvar Street Ward No-10' contains 17 registered voters including serial number 1226, which exceeds the household size threshold.</t>
+          <t>Serial number 1226 does not have any valid parent or spouse relationship with other voters in house number 30 on street '5-Thiruvalluvar Street Ward No-10'. | House number 30 on street '5-Thiruvalluvar Street Ward No-10' contains 17 registered voters including serial number 1226, which exceeds the household size threshold.</t>
         </is>
       </c>
     </row>
@@ -87572,10 +88084,18 @@
         </is>
       </c>
       <c r="N1240" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1240" t="inlineStr"/>
-      <c r="P1240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1240" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1240" t="inlineStr">
+        <is>
+          <t>Serial number 1239 does not have any valid parent or spouse relationship with other voters in house number 31 on street '5-Thiruvalluvar Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="1241">
       <c r="A1241" t="n">
@@ -88552,10 +89072,18 @@
         </is>
       </c>
       <c r="N1254" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1254" t="inlineStr"/>
-      <c r="P1254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1254" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1254" t="inlineStr">
+        <is>
+          <t>Serial number 1253 does not have any valid parent or spouse relationship with other voters in house number 38 on street '5-Thiruvalluvar Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="1255">
       <c r="A1255" t="n">
@@ -88618,10 +89146,18 @@
         </is>
       </c>
       <c r="N1255" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1255" t="inlineStr"/>
-      <c r="P1255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1255" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1255" t="inlineStr">
+        <is>
+          <t>Serial number 1254 does not have any valid parent or spouse relationship with other voters in house number 38 on street '5-Thiruvalluvar Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="1256">
       <c r="A1256" t="n">
@@ -88684,10 +89220,18 @@
         </is>
       </c>
       <c r="N1256" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1256" t="inlineStr"/>
-      <c r="P1256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1256" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1256" t="inlineStr">
+        <is>
+          <t>Serial number 1255 does not have any valid parent or spouse relationship with other voters in house number 38 on street '5-Thiruvalluvar Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="1257">
       <c r="A1257" t="n">
@@ -90900,10 +91444,18 @@
         </is>
       </c>
       <c r="N1288" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1288" t="inlineStr"/>
-      <c r="P1288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1288" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1288" t="inlineStr">
+        <is>
+          <t>Serial number 1287 does not have any valid parent or spouse relationship with other voters in house number 48-21 on street '5-Thiruvalluvar Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="1289">
       <c r="A1289" t="n">
@@ -90966,10 +91518,18 @@
         </is>
       </c>
       <c r="N1289" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1289" t="inlineStr"/>
-      <c r="P1289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1289" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1289" t="inlineStr">
+        <is>
+          <t>Serial number 1288 does not have any valid parent or spouse relationship with other voters in house number 48-21 on street '5-Thiruvalluvar Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="1290">
       <c r="A1290" t="n">
